--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cck-Cckbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cck-Cckbr.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1794766666666666</v>
+        <v>0.062288</v>
       </c>
       <c r="H2">
-        <v>0.53843</v>
+        <v>0.186864</v>
       </c>
       <c r="I2">
-        <v>0.0361256439470005</v>
+        <v>0.01284041117846354</v>
       </c>
       <c r="J2">
-        <v>0.03612564394700051</v>
+        <v>0.01284041117846353</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1500101875333333</v>
+        <v>0.05206155616</v>
       </c>
       <c r="R2">
-        <v>1.3500916878</v>
+        <v>0.46855400544</v>
       </c>
       <c r="S2">
-        <v>0.0361256439470005</v>
+        <v>0.01284041117846354</v>
       </c>
       <c r="T2">
-        <v>0.03612564394700051</v>
+        <v>0.01284041117846353</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1.131428</v>
       </c>
       <c r="I3">
-        <v>0.07591249573698883</v>
+        <v>0.07774638634957316</v>
       </c>
       <c r="J3">
-        <v>0.07591249573698884</v>
+        <v>0.07774638634957316</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -632,10 +632,10 @@
         <v>2.83701045288</v>
       </c>
       <c r="S3">
-        <v>0.07591249573698883</v>
+        <v>0.07774638634957316</v>
       </c>
       <c r="T3">
-        <v>0.07591249573698884</v>
+        <v>0.07774638634957316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.411504333333334</v>
+        <v>4.411504333333333</v>
       </c>
       <c r="H4">
         <v>13.234513</v>
       </c>
       <c r="I4">
-        <v>0.8879618603160108</v>
+        <v>0.9094132024719633</v>
       </c>
       <c r="J4">
-        <v>0.8879618603160107</v>
+        <v>0.9094132024719633</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -691,13 +691,13 @@
         <v>3.687223551886667</v>
       </c>
       <c r="R4">
-        <v>33.18501196698001</v>
+        <v>33.18501196698</v>
       </c>
       <c r="S4">
-        <v>0.8879618603160108</v>
+        <v>0.9094132024719633</v>
       </c>
       <c r="T4">
-        <v>0.8879618603160107</v>
+        <v>0.9094132024719633</v>
       </c>
     </row>
   </sheetData>
